--- a/medicine/Psychotrope/Brasserie_De_Troch/Brasserie_De_Troch.xlsx
+++ b/medicine/Psychotrope/Brasserie_De_Troch/Brasserie_De_Troch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie De Troch (en néerlandais : Brouwerij De Troch) est une brasserie située à Wambeek dans la commune de Ternat en province du Brabant flamand en Belgique. Elle produit des bières de type lambic caractéristiques du Pajottenland appelées Chapeau.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie De Troch est une entreprise familiale qui fut fondée à la fin du XVIIIe siècle et dont la septième génération est actuellement aux commandes.
 La brasserie est créée en 1795 dans une ancienne ferme de Wambeek. Cette ferme est achetée le 30 juin 1795 par Joannes Franciscus De Troch et son épouse Theresia Cortvriendt. Un plan cadastral de 1820 qualifie les bâtiments de ferme, distillerie de chicorée et brasserie. En 1830, le ferme-brasserie est léguée à leur fils Josephus Petrus (Pieter) De Troch et à son épouse Maria Anna Van Cutsem. Leur fille Petronella qui hérite de la ferme-brasserie épouse en 1857 son cousin Egidius De Troch, ce qui a pour effet de maintenir le nom De Troch à la tête de l'entreprise. Entre 1878 et 1885, Egidius De Troch fait construire une nouvelle salle de brassage. En 1889, Louis De Troch, fils d'Egidius reprend la brasserie. La bière est alors la plupart du temps vendue à des agriculteurs locaux. En 1936, le fils Louis De Troch (qui a le même prénom que son père) reprend l'entreprise familiale. N'ayant pas de descendance, il est dernier brasseur nommé De Troch. Mais l'entreprise familiale ne s'arrête pas là car, en 1974, Jos Raes, le neveu de Louis De Troch (le fils de la sœur de Louis De Troch, Magdalena De Troch) reprend la brasserie. La ferme est définitivement arrêtée à cette époque. En 2002, Pauwel Raes, le fils de Jos Raes rejoint son père au sein de la brasserie.
@@ -547,7 +561,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie se trouve à Wambeek, village du Pajottenland, le long de la Langestraat, au sein d'une imposante ferme en carré bâtie en brique située à quelques dizaines de mètres de l'église.
 </t>
@@ -578,7 +594,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La brasserie produit uniquement des bières à fermentation spontanée:
 Gueuzes classiques et faro :
